--- a/paramscan/chromatin_model.xlsx
+++ b/paramscan/chromatin_model.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -173,18 +173,12 @@
   <si>
     <t>uM⁻¹min ⁻¹</t>
   </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +220,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -281,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -328,16 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -2544,21 +2522,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.7"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="7.3515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.29296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.9375" style="5"/>
+    <col min="1" max="1" width="7.3515625" customWidth="1"/>
+    <col min="2" max="2" width="9.29296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.41015625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.64453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="42" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.52734375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.9375" style="5"/>
+    <col min="6" max="6" width="12.64453125" customWidth="1"/>
+    <col min="7" max="7" width="42" customWidth="1"/>
+    <col min="8" max="8" width="11.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2583,6 +2561,7 @@
       <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="23">
@@ -2604,10 +2583,12 @@
         <v>45</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A3" s="23"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -2615,7 +2596,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>25</v>
@@ -2629,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="24" customFormat="1">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A4" s="23"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
@@ -2637,7 +2618,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>28</v>
@@ -2651,27 +2632,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1">
-      <c r="A5" s="25">
+    <row r="5" spans="1:9" s="17" customFormat="1">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="21">
         <v>75</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>46</v>
+      <c r="G5" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2695,10 +2676,12 @@
         <v>45</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A7" s="23"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -2706,7 +2689,7 @@
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>25</v>
@@ -2720,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="24" customFormat="1">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A8" s="23"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2728,7 +2711,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>28</v>
@@ -2742,28 +2725,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="12" customFormat="1">
-      <c r="A9" s="25">
+    <row r="9" spans="1:9" s="17" customFormat="1">
+      <c r="A9" s="13">
         <v>4</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="21">
         <f>E5*0.8</f>
         <v>60</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>46</v>
+      <c r="G9" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2787,10 +2770,12 @@
         <v>45</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A11" s="23"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
@@ -2798,7 +2783,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>25</v>
@@ -2812,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="24" customFormat="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A12" s="23"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2820,7 +2805,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
@@ -2834,28 +2819,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
-      <c r="A13" s="25">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:9" s="17" customFormat="1">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="21">
         <f>E9*0.8</f>
         <v>48</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>46</v>
+      <c r="G13" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2879,10 +2864,12 @@
         <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A15" s="23"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
@@ -2890,7 +2877,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
@@ -2904,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="24" customFormat="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A16" s="23"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2912,7 +2899,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>28</v>
@@ -2926,28 +2913,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1">
-      <c r="A17" s="25">
+    <row r="17" spans="1:9" s="17" customFormat="1">
+      <c r="A17" s="13">
         <v>8</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="21">
         <f>E13*0.8</f>
         <v>38.400000000000006</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
+      <c r="G17" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2971,10 +2958,12 @@
         <v>45</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A19" s="23"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
@@ -2982,7 +2971,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -2996,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="24" customFormat="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A20" s="23"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3004,7 +2993,7 @@
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>28</v>
@@ -3018,28 +3007,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="12" customFormat="1">
-      <c r="A21" s="25">
+    <row r="21" spans="1:9" s="17" customFormat="1">
+      <c r="A21" s="13">
         <v>10</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="21">
         <f>E17*0.8</f>
         <v>30.720000000000006</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>46</v>
+      <c r="G21" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3063,10 +3052,12 @@
         <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A23" s="23"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
@@ -3074,7 +3065,7 @@
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>25</v>
@@ -3088,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="24" customFormat="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A24" s="23"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
@@ -3096,7 +3087,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>28</v>
@@ -3110,28 +3101,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="12" customFormat="1">
-      <c r="A25" s="25">
+    <row r="25" spans="1:9" s="17" customFormat="1">
+      <c r="A25" s="13">
         <v>12</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="21">
         <f>E21*0.8</f>
         <v>24.576000000000008</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>46</v>
+      <c r="G25" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3155,10 +3146,12 @@
         <v>45</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A27" s="23"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -3166,7 +3159,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>25</v>
@@ -3180,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="24" customFormat="1">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A28" s="23"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
@@ -3188,7 +3181,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>28</v>
@@ -3202,28 +3195,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="12" customFormat="1">
-      <c r="A29" s="25">
+    <row r="29" spans="1:9" s="17" customFormat="1">
+      <c r="A29" s="13">
         <v>14</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="21">
         <f>E25*0.8</f>
         <v>19.660800000000009</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>46</v>
+      <c r="G29" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3247,10 +3240,12 @@
         <v>45</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A31" s="23"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -3258,7 +3253,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>25</v>
@@ -3272,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="24" customFormat="1">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A32" s="23"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
@@ -3280,7 +3275,7 @@
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>28</v>
@@ -3294,28 +3289,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="12" customFormat="1">
-      <c r="A33" s="25">
+    <row r="33" spans="1:9" s="17" customFormat="1">
+      <c r="A33" s="13">
         <v>16</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="21">
         <f>E29*0.8</f>
         <v>15.728640000000008</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>46</v>
+      <c r="G33" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3339,10 +3334,12 @@
         <v>45</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A35" s="23"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -3350,7 +3347,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -3364,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="24" customFormat="1">
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A36" s="23"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
@@ -3372,7 +3369,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>28</v>
@@ -3386,28 +3383,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="12" customFormat="1">
-      <c r="A37" s="25">
+    <row r="37" spans="1:9" s="17" customFormat="1">
+      <c r="A37" s="13">
         <v>18</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="21">
         <f>E33*0.8</f>
         <v>12.582912000000007</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>46</v>
+      <c r="G37" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3431,10 +3428,12 @@
         <v>45</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A39" s="23"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -3442,7 +3441,7 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>
@@ -3456,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="24" customFormat="1">
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A40" s="23"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
@@ -3464,7 +3463,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>28</v>
@@ -3478,28 +3477,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="12" customFormat="1">
-      <c r="A41" s="25">
+    <row r="41" spans="1:9" s="17" customFormat="1">
+      <c r="A41" s="13">
         <v>20</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="21">
         <f>E37*0.8</f>
         <v>10.066329600000007</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>46</v>
+      <c r="G41" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3523,10 +3522,12 @@
         <v>45</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A43" s="23"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
@@ -3534,7 +3535,7 @@
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>25</v>
@@ -3548,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="24" customFormat="1">
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A44" s="23"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
@@ -3556,7 +3557,7 @@
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>28</v>
@@ -3570,28 +3571,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="12" customFormat="1">
-      <c r="A45" s="25">
+    <row r="45" spans="1:9" s="17" customFormat="1">
+      <c r="A45" s="13">
         <v>22</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="C45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E45" s="21">
         <f>E41*0.8</f>
         <v>8.0530636800000064</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>46</v>
+      <c r="G45" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3615,10 +3616,12 @@
         <v>45</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A47" s="23"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
@@ -3626,7 +3629,7 @@
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>25</v>
@@ -3640,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="24" customFormat="1">
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A48" s="23"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
@@ -3648,7 +3651,7 @@
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>28</v>
@@ -3662,28 +3665,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="12" customFormat="1">
-      <c r="A49" s="25">
+    <row r="49" spans="1:9" s="17" customFormat="1">
+      <c r="A49" s="13">
         <v>24</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="C49" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="21">
         <f>E45*0.8</f>
         <v>6.4424509440000053</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>46</v>
+      <c r="G49" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3707,10 +3710,12 @@
         <v>45</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A51" s="23"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
@@ -3718,7 +3723,7 @@
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>25</v>
@@ -3732,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="24" customFormat="1">
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A52" s="23"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
@@ -3740,7 +3745,7 @@
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>28</v>
@@ -3754,28 +3759,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="12" customFormat="1">
-      <c r="A53" s="25">
+    <row r="53" spans="1:9" s="17" customFormat="1">
+      <c r="A53" s="13">
         <v>26</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="C53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="21">
         <f>E49*0.8</f>
         <v>5.1539607552000044</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>46</v>
+      <c r="G53" s="17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3799,10 +3804,12 @@
         <v>45</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="24" customFormat="1">
+        <v>29</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A55" s="23"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
@@ -3810,7 +3817,7 @@
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>25</v>
@@ -3824,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="24" customFormat="1">
+    <row r="56" spans="1:9" s="3" customFormat="1" ht="13.7">
       <c r="A56" s="23"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
@@ -3832,7 +3839,7 @@
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7">
-        <v>0.8</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>28</v>
@@ -3846,31 +3853,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="27" customFormat="1">
-      <c r="A57" s="25">
+    <row r="57" spans="1:9" s="18" customFormat="1">
+      <c r="A57" s="13">
         <v>28</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="12" t="s">
+      <c r="C57" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>23</v>
       </c>
       <c r="E57" s="21">
         <f>E53*0.8</f>
         <v>4.1231686041600035</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="G57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="11"/>
@@ -3885,8 +3892,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="11"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="11"/>
